--- a/biology/Histoire de la zoologie et de la botanique/Louis_Albert_Necker/Louis_Albert_Necker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Albert_Necker/Louis_Albert_Necker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Albert Necker-de Saussure, (10 avril 1786 à Genève – 20 novembre 1861 à Portree en Écosse), est un naturaliste, géologue suisse, professeur de géologie et de minéralogie à l'Académie de Genève.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du magistrat et botaniste Jacques Necker (lui-même fils du mathématicien Louis Necker) et d'Albertine de Saussure (fille de Horace Bénédict de Saussure). 
 Son nom reste associé à une illusion d'optique, connue sous le nom de cube de Necker.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire sur les oiseaux des environs de Genève, Genève : Chez J.J. Paschoud, 1823. (OCLC 12072634)
 Voyage en Écosse et aux Iles Hébrides. Genève, Paris, J.J. Paschoud, 1821. (OCLC 3759700)
@@ -582,7 +598,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kenneth L. Taylor, article "Necker" in Charles C. Gillispie (dir.), Dictionary of Scientific Biography, New York, Scribner's sons.
 Société de physique et d'histoire naturelle de Genève, Mémoires de la Société de physique et d'histoire naturelle de Genève. Genève : La Société, 1821-. (p. 452-456) (OCLC 4277814)</t>
